--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nmu-Nmur1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nmu-Nmur1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,12 +86,6 @@
   </si>
   <si>
     <t>Nmur1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -519,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +531,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.127729</v>
+        <v>0.147769</v>
       </c>
       <c r="H2">
-        <v>0.383187</v>
+        <v>0.443307</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5363704999673319</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5363704999673319</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,42 +549,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.039135</v>
+        <v>0.02360366666666667</v>
       </c>
       <c r="N2">
-        <v>0.117405</v>
+        <v>0.070811</v>
       </c>
       <c r="O2">
-        <v>0.7979298205074182</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.7979298205074182</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.004998674414999999</v>
+        <v>0.003487890219666667</v>
       </c>
       <c r="R2">
-        <v>0.044988069735</v>
+        <v>0.031391011977</v>
       </c>
       <c r="S2">
-        <v>0.7979298205074182</v>
+        <v>0.5363704999673319</v>
       </c>
       <c r="T2">
-        <v>0.7979298205074182</v>
+        <v>0.5363704999673319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +599,10 @@
         <v>0.383187</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4636295000326681</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4636295000326681</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +611,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.009910666666666667</v>
+        <v>0.02360366666666667</v>
       </c>
       <c r="N3">
-        <v>0.029732</v>
+        <v>0.070811</v>
       </c>
       <c r="O3">
-        <v>0.2020701794925818</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.2020701794925817</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.001265879542666667</v>
+        <v>0.003014872739666666</v>
       </c>
       <c r="R3">
-        <v>0.011392915884</v>
+        <v>0.027133854657</v>
       </c>
       <c r="S3">
-        <v>0.2020701794925818</v>
+        <v>0.4636295000326681</v>
       </c>
       <c r="T3">
-        <v>0.2020701794925817</v>
+        <v>0.4636295000326681</v>
       </c>
     </row>
   </sheetData>
